--- a/src/main/resources/template/excel/export/FranchiseAccount5.xlsx
+++ b/src/main/resources/template/excel/export/FranchiseAccount5.xlsx
@@ -32,14 +32,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="G4")</t>
+          <t>jx:area(lastCell="I5")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="G3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="I4")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>加盟店编号</t>
   </si>
@@ -82,111 +81,47 @@
     <t>审核时间</t>
   </si>
   <si>
+    <t>加盟店已收账款明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>合计：</t>
-  </si>
-  <si>
-    <t>加盟店已付账款明细</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${obj.branchCode}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${obj.branchName}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${obj.targetformNo}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${obj.targetformType}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${obj.payableAmount}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${obj.auditUserName}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${obj.auditTime}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[SUMPRODUCT(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3+0)]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F4:F4:F4+0)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -196,26 +131,9 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -242,6 +160,41 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -263,21 +216,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -291,36 +229,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,87 +561,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9" style="8"/>
+    <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
+      <c r="E5"/>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/main/resources/template/excel/export/FranchiseAccount5.xlsx
+++ b/src/main/resources/template/excel/export/FranchiseAccount5.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>加盟店编号</t>
   </si>
@@ -101,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.targetformNo}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.targetformType}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.payableAmount}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +113,18 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(F4:F4:F4+0)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.targetFormNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.targetFormType}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +568,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,7 +625,7 @@
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -630,19 +634,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="I4" s="14"/>
     </row>
@@ -652,7 +656,7 @@
       </c>
       <c r="E5"/>
       <c r="F5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/FranchiseAccount5.xlsx
+++ b/src/main/resources/template/excel/export/FranchiseAccount5.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -568,12 +568,18 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9" style="2"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
